--- a/REFramework/VB/Data/Config.xlsx
+++ b/REFramework/VB/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/StudioTemplates/REFramework/VB/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina.capota\Desktop\ILTs\REF Testing\StudioTemplates\StudioTemplates\REFramework\VB\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{9BE7DFF5-5AFC-4110-8461-609B0BDD5551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{860A6805-D6E9-485D-B8D3-B6A5A8C26AE0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAB5446-8C08-4CD2-8869-CBCB6F9700B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10320" yWindow="17280" windowWidth="23040" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>ExceptionMessage_ConsecutiveErrors</t>
   </si>
   <si>
-    <t>TestFramework</t>
-  </si>
-  <si>
     <t>RetryNumberGetTransactionItem</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
 </sst>
 </file>
@@ -537,16 +537,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -588,13 +588,13 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +604,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1619,16 +1619,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1665,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1763,42 +1763,42 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2786,12 +2786,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
